--- a/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
+++ b/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="327">
   <si>
     <t>■基礎となる用語の説明</t>
     <rPh sb="1" eb="3">
@@ -1943,61 +1943,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/m2oGIT/T_YamamotoRepository.git</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Gitリポジトリエクスプローラから以下リポジトリをローカルに複製する（山本リポジトリ）。</t>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヤマモト</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロジェクトの「インポート」＞「既存プロジェクトのインポート」でワークスペースにインポートする。</t>
-    <rPh sb="16" eb="18">
-      <t>キソン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>対象は「stsSample」を選択。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>3.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ワークスペース上でM（Mavenプロジェクト）、S（Springプロジェクト）のアイコンが自動で付与されることを確認する。</t>
-    <rPh sb="7" eb="8">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2013,22 +1959,6 @@
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ビルド～実行はプロジェクトのMavenメニューから以下の順序で行う。</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュンジョ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2202,10 +2132,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>以下URLが今回のサンプルのルートパス。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -3869,6 +3795,124 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://github.com/M2O-Workshop/OMSB.git</t>
+  </si>
+  <si>
+    <t>Gitリポジトリエクスプローラから以下リポジトリをローカルに複製する（OMSBリポジトリ）。</t>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロジェクトの「インポート」＞「一般的なプロジェクトとしてインポート」でワークスペースにインポートする。</t>
+    <rPh sb="16" eb="19">
+      <t>イッパンテキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>右クリック＞構成＞Mavenプロジェクトへ変換を選択する。</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ワークスペース上でM（Mavenプロジェクト）、S（Springプロジェクト）のアイコンが付与されることを確認する。</t>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インポート直後は標準プロジェクトの状態となる。</t>
+    <rPh sb="5" eb="7">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>対象は「stsSample」を選択。インポート時のプロジェクト名はデフォルト（stsSample）で問題なし。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ビルド～実行はプロジェクトのMavenメニューから以下の順序で行う。初回は時間が掛かる。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -7068,229 +7112,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>84045</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="四角形: メモ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D63CBE6-B4B3-4627-B640-251D5998952E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6673104" y="7608794"/>
-          <a:ext cx="3154456" cy="1008529"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>山本</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>memo】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・仮の置き場。後日</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>common</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>やコア開発用等の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　別リポジトリへの移管を検討する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>37078</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>56703</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B415A0-9921-48DC-B9F3-DF35B35ACD41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487456" y="9188824"/>
-          <a:ext cx="4586667" cy="3580952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>4876</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>96872</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A9C8B3-184D-4D17-9664-7C6D0FB9939C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487456" y="13172515"/>
-          <a:ext cx="5809524" cy="466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>101490</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>185606</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>185605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7306,7 +7139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7332,13 +7165,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5603</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>39221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7398,13 +7231,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>61631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>128867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7464,13 +7297,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>184896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7526,25 +7359,305 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>72919</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>145628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9C4EAD-B507-4601-ABB9-5633FE8065A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487457" y="20820529"/>
+          <a:ext cx="3838095" cy="2633334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>37078</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>170989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7629D06E-5B39-4E51-8C05-169EAE88C734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="9396133"/>
+          <a:ext cx="4586667" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>37079</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA7D5F8-0688-4430-A171-84405AF18577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5193927" y="9396133"/>
+          <a:ext cx="4586667" cy="3699048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5604</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>149169</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>53174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AB4351-EFF1-436A-882A-9DDA9CA859EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="493060" y="13788838"/>
+          <a:ext cx="3438095" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>93172</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>72091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD31E9-0387-41C7-992B-44DEC41F4BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="453838" y="14814177"/>
+          <a:ext cx="7657143" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>87465</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94675FD7-67AC-471F-8F79-41E8050C09DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="16920883"/>
+          <a:ext cx="4009524" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>84045</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:colOff>106455</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>5603</xdr:rowOff>
+      <xdr:colOff>33615</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21059C6A-8A6B-4788-B5CB-23C6FBE533A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28042A2A-ABFE-4C16-ADCF-1D8A15C7CF32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7552,8 +7665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="728384" y="13166912"/>
-          <a:ext cx="397807" cy="381000"/>
+          <a:off x="750794" y="16948896"/>
+          <a:ext cx="397807" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7592,54 +7705,268 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>184898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>72919</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>145628</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9C4EAD-B507-4601-ABB9-5633FE8065A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07462D4-0053-49D4-BABA-C334342F6376}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="487457" y="20820529"/>
-          <a:ext cx="3838095" cy="2633334"/>
+          <a:off x="4964207" y="16007604"/>
+          <a:ext cx="1781734" cy="296956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359ABBAA-C2E7-49C0-AB78-48D1E23DFB66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="577103" y="10639987"/>
+          <a:ext cx="1591235" cy="207308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>117662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C38998A-FAB2-47D6-A6AA-7B3581ECB1D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="969308" y="11407589"/>
+          <a:ext cx="605118" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>106455</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88C8463-7780-4446-94F6-8339CD4D5085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5793442" y="10186149"/>
+          <a:ext cx="605117" cy="173690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13563,7 +13890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E116"/>
+  <dimension ref="B2:E133"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -13696,130 +14023,146 @@
         <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.75">
       <c r="D42" s="5" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.75">
       <c r="D45" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C71" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="C81" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="C86" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D89" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.75">
-      <c r="C64" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D92" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D93" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="C69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" s="1" t="s">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.75">
+      <c r="D112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D70" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="1" t="s">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="C116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.75">
+      <c r="D117" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" ht="18" x14ac:dyDescent="0.75">
+      <c r="D118" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D133" s="6" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D75" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.75">
-      <c r="D95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.75">
-      <c r="D96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="C99" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.75">
-      <c r="D100" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" ht="18" x14ac:dyDescent="0.75">
-      <c r="D101" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.75">
-      <c r="D116" s="6" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -13827,12 +14170,11 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="D42" r:id="rId3"/>
-    <hyperlink ref="D101" r:id="rId4"/>
+    <hyperlink ref="D118" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -13849,7 +14191,7 @@
   <sheetData>
     <row r="2" spans="2:44" x14ac:dyDescent="0.75">
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.75">
@@ -13857,312 +14199,312 @@
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.75">
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.75">
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.75">
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.75">
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.75">
       <c r="E9" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.75">
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.75">
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.75">
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.75">
       <c r="AB15" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.75">
       <c r="AC16" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD17" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD18" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD19" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD20" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AB21" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AC22" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AT22" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD23" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD24" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AC25" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD26" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD27" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AD28" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AC29" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="BE29" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="28:60" x14ac:dyDescent="0.75">
       <c r="AB30" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="BH30" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="3:46" x14ac:dyDescent="0.75">
       <c r="AB34" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AT34" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.75">
       <c r="AB37" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AF37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="AQ37" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="3:46" x14ac:dyDescent="0.75">
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="3:46" x14ac:dyDescent="0.75">
       <c r="D41" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="3:46" x14ac:dyDescent="0.75">
       <c r="E42" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="3:46" x14ac:dyDescent="0.75">
       <c r="D44" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.75">
       <c r="E45" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="3:46" x14ac:dyDescent="0.75">
       <c r="D47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="48" spans="3:46" x14ac:dyDescent="0.75">
       <c r="E48" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="3:84" x14ac:dyDescent="0.75">
       <c r="D50" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E51" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E52" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E53" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E54" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="3:84" x14ac:dyDescent="0.75">
@@ -14170,15 +14512,15 @@
     </row>
     <row r="57" spans="3:84" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.8">
       <c r="C57" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="3:84" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.8">
       <c r="E58" s="16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -14192,7 +14534,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="R58" s="17"/>
       <c r="S58" s="17"/>
@@ -14209,7 +14551,7 @@
       <c r="AD58" s="17"/>
       <c r="AE58" s="18"/>
       <c r="AF58" s="16" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AG58" s="17"/>
       <c r="AH58" s="17"/>
@@ -14227,7 +14569,7 @@
       <c r="AT58" s="17"/>
       <c r="AU58" s="18"/>
       <c r="AV58" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
@@ -14268,7 +14610,7 @@
     </row>
     <row r="59" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E59" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -14282,7 +14624,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
@@ -14299,7 +14641,7 @@
       <c r="AD59" s="8"/>
       <c r="AE59" s="9"/>
       <c r="AF59" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AG59" s="8"/>
       <c r="AH59" s="8"/>
@@ -14317,7 +14659,7 @@
       <c r="AT59" s="8"/>
       <c r="AU59" s="9"/>
       <c r="AV59" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AW59" s="8"/>
       <c r="AX59" s="8"/>
@@ -14401,7 +14743,7 @@
       <c r="AT60" s="11"/>
       <c r="AU60" s="12"/>
       <c r="AV60" s="11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AW60" s="11"/>
       <c r="AX60" s="11"/>
@@ -14524,7 +14866,7 @@
     </row>
     <row r="62" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E62" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -14538,7 +14880,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
@@ -14555,7 +14897,7 @@
       <c r="AD62" s="8"/>
       <c r="AE62" s="9"/>
       <c r="AF62" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG62" s="8"/>
       <c r="AH62" s="8"/>
@@ -14573,7 +14915,7 @@
       <c r="AT62" s="8"/>
       <c r="AU62" s="9"/>
       <c r="AV62" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AW62" s="8"/>
       <c r="AX62" s="8"/>
@@ -14657,7 +14999,7 @@
       <c r="AT63" s="11"/>
       <c r="AU63" s="12"/>
       <c r="AV63" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
@@ -14756,7 +15098,7 @@
       <c r="BI64" s="11"/>
       <c r="BJ64" s="11"/>
       <c r="BK64" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="BL64" s="11"/>
       <c r="BM64" s="11"/>
@@ -14827,7 +15169,7 @@
       <c r="AV65" s="11"/>
       <c r="AW65" s="11"/>
       <c r="AX65" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AY65" s="11"/>
       <c r="AZ65" s="11"/>
@@ -14841,7 +15183,7 @@
       <c r="BH65" s="11"/>
       <c r="BI65" s="11"/>
       <c r="BJ65" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="BK65" s="11"/>
       <c r="BL65" s="11"/>
@@ -14926,7 +15268,7 @@
       <c r="BI66" s="11"/>
       <c r="BJ66" s="11"/>
       <c r="BK66" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="BL66" s="11"/>
       <c r="BM66" s="11"/>
@@ -14997,7 +15339,7 @@
       <c r="AV67" s="11"/>
       <c r="AW67" s="11"/>
       <c r="AX67" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AY67" s="11"/>
       <c r="AZ67" s="11"/>
@@ -15011,7 +15353,7 @@
       <c r="BH67" s="11"/>
       <c r="BI67" s="11"/>
       <c r="BJ67" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="BK67" s="11"/>
       <c r="BL67" s="11"/>
@@ -15096,7 +15438,7 @@
       <c r="BI68" s="11"/>
       <c r="BJ68" s="11"/>
       <c r="BK68" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="BL68" s="11"/>
       <c r="BM68" s="11"/>
@@ -15204,7 +15546,7 @@
     </row>
     <row r="70" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E70" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -15218,7 +15560,7 @@
       <c r="O70" s="8"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
@@ -15235,7 +15577,7 @@
       <c r="AD70" s="8"/>
       <c r="AE70" s="9"/>
       <c r="AF70" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AG70" s="8"/>
       <c r="AH70" s="8"/>
@@ -15253,7 +15595,7 @@
       <c r="AT70" s="8"/>
       <c r="AU70" s="9"/>
       <c r="AV70" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AW70" s="8"/>
       <c r="AX70" s="8"/>
@@ -15337,7 +15679,7 @@
       <c r="AT71" s="11"/>
       <c r="AU71" s="12"/>
       <c r="AV71" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AW71" s="11"/>
       <c r="AX71" s="11"/>
@@ -15460,7 +15802,7 @@
     </row>
     <row r="73" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E73" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -15474,7 +15816,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
@@ -15491,7 +15833,7 @@
       <c r="AD73" s="8"/>
       <c r="AE73" s="9"/>
       <c r="AF73" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AG73" s="8"/>
       <c r="AH73" s="8"/>
@@ -15509,7 +15851,7 @@
       <c r="AT73" s="8"/>
       <c r="AU73" s="9"/>
       <c r="AV73" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AW73" s="8"/>
       <c r="AX73" s="8"/>
@@ -15593,7 +15935,7 @@
       <c r="AT74" s="11"/>
       <c r="AU74" s="12"/>
       <c r="AV74" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AW74" s="11"/>
       <c r="AX74" s="11"/>
@@ -15716,7 +16058,7 @@
     </row>
     <row r="76" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E76" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -15730,7 +16072,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
@@ -15747,7 +16089,7 @@
       <c r="AD76" s="8"/>
       <c r="AE76" s="9"/>
       <c r="AF76" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG76" s="8"/>
       <c r="AH76" s="8"/>
@@ -15765,7 +16107,7 @@
       <c r="AT76" s="8"/>
       <c r="AU76" s="9"/>
       <c r="AV76" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AW76" s="8"/>
       <c r="AX76" s="8"/>
@@ -15849,7 +16191,7 @@
       <c r="AT77" s="11"/>
       <c r="AU77" s="12"/>
       <c r="AV77" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AW77" s="11"/>
       <c r="AX77" s="11"/>
@@ -15935,7 +16277,7 @@
       <c r="AV78" s="11"/>
       <c r="AW78" s="11"/>
       <c r="AX78" s="11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AY78" s="11"/>
       <c r="AZ78" s="11"/>
@@ -16019,7 +16361,7 @@
       <c r="AV79" s="11"/>
       <c r="AW79" s="11"/>
       <c r="AX79" s="11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AY79" s="11"/>
       <c r="AZ79" s="11"/>
@@ -16140,7 +16482,7 @@
     </row>
     <row r="81" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E81" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -16154,7 +16496,7 @@
       <c r="O81" s="8"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
@@ -16171,7 +16513,7 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="9"/>
       <c r="AF81" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AG81" s="8"/>
       <c r="AH81" s="8"/>
@@ -16189,7 +16531,7 @@
       <c r="AT81" s="8"/>
       <c r="AU81" s="9"/>
       <c r="AV81" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AW81" s="8"/>
       <c r="AX81" s="8"/>
@@ -16273,7 +16615,7 @@
       <c r="AT82" s="11"/>
       <c r="AU82" s="12"/>
       <c r="AV82" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AW82" s="11"/>
       <c r="AX82" s="11"/>
@@ -16396,7 +16738,7 @@
     </row>
     <row r="84" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E84" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -16410,7 +16752,7 @@
       <c r="O84" s="8"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
@@ -16427,7 +16769,7 @@
       <c r="AD84" s="8"/>
       <c r="AE84" s="9"/>
       <c r="AF84" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AG84" s="8"/>
       <c r="AH84" s="8"/>
@@ -16445,7 +16787,7 @@
       <c r="AT84" s="8"/>
       <c r="AU84" s="9"/>
       <c r="AV84" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AW84" s="8"/>
       <c r="AX84" s="8"/>
@@ -16529,7 +16871,7 @@
       <c r="AT85" s="11"/>
       <c r="AU85" s="12"/>
       <c r="AV85" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AW85" s="11"/>
       <c r="AX85" s="11"/>
@@ -16613,7 +16955,7 @@
       <c r="AT86" s="11"/>
       <c r="AU86" s="12"/>
       <c r="AV86" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AW86" s="11"/>
       <c r="AX86" s="11"/>
@@ -16736,7 +17078,7 @@
     </row>
     <row r="88" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E88" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -16750,7 +17092,7 @@
       <c r="O88" s="8"/>
       <c r="P88" s="9"/>
       <c r="Q88" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
@@ -16767,7 +17109,7 @@
       <c r="AD88" s="8"/>
       <c r="AE88" s="9"/>
       <c r="AF88" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AG88" s="8"/>
       <c r="AH88" s="8"/>
@@ -16785,7 +17127,7 @@
       <c r="AT88" s="8"/>
       <c r="AU88" s="9"/>
       <c r="AV88" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AW88" s="8"/>
       <c r="AX88" s="8"/>
@@ -16869,7 +17211,7 @@
       <c r="AT89" s="11"/>
       <c r="AU89" s="12"/>
       <c r="AV89" s="11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AW89" s="11"/>
       <c r="AX89" s="11"/>
@@ -16992,7 +17334,7 @@
     </row>
     <row r="91" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E91" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -17006,7 +17348,7 @@
       <c r="O91" s="8"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
@@ -17023,7 +17365,7 @@
       <c r="AD91" s="8"/>
       <c r="AE91" s="9"/>
       <c r="AF91" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AG91" s="8"/>
       <c r="AH91" s="8"/>
@@ -17041,7 +17383,7 @@
       <c r="AT91" s="8"/>
       <c r="AU91" s="9"/>
       <c r="AV91" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AW91" s="8"/>
       <c r="AX91" s="8"/>
@@ -17125,7 +17467,7 @@
       <c r="AT92" s="11"/>
       <c r="AU92" s="12"/>
       <c r="AV92" s="11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AW92" s="11"/>
       <c r="AX92" s="11"/>
@@ -17248,7 +17590,7 @@
     </row>
     <row r="94" spans="5:84" x14ac:dyDescent="0.75">
       <c r="E94" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -17262,7 +17604,7 @@
       <c r="O94" s="8"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
@@ -17279,7 +17621,7 @@
       <c r="AD94" s="8"/>
       <c r="AE94" s="9"/>
       <c r="AF94" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AG94" s="8"/>
       <c r="AH94" s="8"/>
@@ -17297,7 +17639,7 @@
       <c r="AT94" s="8"/>
       <c r="AU94" s="9"/>
       <c r="AV94" s="8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AW94" s="8"/>
       <c r="AX94" s="8"/>
@@ -17365,7 +17707,7 @@
       <c r="AD95" s="11"/>
       <c r="AE95" s="12"/>
       <c r="AF95" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG95" s="11"/>
       <c r="AH95" s="11"/>
@@ -17383,7 +17725,7 @@
       <c r="AT95" s="11"/>
       <c r="AU95" s="12"/>
       <c r="AV95" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AW95" s="11"/>
       <c r="AX95" s="11"/>
@@ -17506,7 +17848,7 @@
     </row>
     <row r="97" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E97" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -17520,7 +17862,7 @@
       <c r="O97" s="8"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
@@ -17537,7 +17879,7 @@
       <c r="AD97" s="8"/>
       <c r="AE97" s="9"/>
       <c r="AF97" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AG97" s="8"/>
       <c r="AH97" s="8"/>
@@ -17555,7 +17897,7 @@
       <c r="AT97" s="8"/>
       <c r="AU97" s="9"/>
       <c r="AV97" s="8" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AW97" s="8"/>
       <c r="AX97" s="8"/>
@@ -17623,7 +17965,7 @@
       <c r="AD98" s="11"/>
       <c r="AE98" s="12"/>
       <c r="AF98" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AG98" s="11"/>
       <c r="AH98" s="11"/>
@@ -17641,7 +17983,7 @@
       <c r="AT98" s="11"/>
       <c r="AU98" s="12"/>
       <c r="AV98" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AW98" s="11"/>
       <c r="AX98" s="11"/>
@@ -17725,7 +18067,7 @@
       <c r="AT99" s="11"/>
       <c r="AU99" s="12"/>
       <c r="AV99" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AW99" s="11"/>
       <c r="AX99" s="11"/>
@@ -17809,7 +18151,7 @@
       <c r="AT100" s="11"/>
       <c r="AU100" s="12"/>
       <c r="AV100" s="11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AW100" s="11"/>
       <c r="AX100" s="11"/>
@@ -17893,7 +18235,7 @@
       <c r="AT101" s="11"/>
       <c r="AU101" s="12"/>
       <c r="AV101" s="19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AW101" s="11"/>
       <c r="AX101" s="11"/>
@@ -18016,7 +18358,7 @@
     </row>
     <row r="103" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E103" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -18030,7 +18372,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
@@ -18047,7 +18389,7 @@
       <c r="AD103" s="8"/>
       <c r="AE103" s="9"/>
       <c r="AF103" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
@@ -18065,7 +18407,7 @@
       <c r="AT103" s="8"/>
       <c r="AU103" s="9"/>
       <c r="AV103" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AW103" s="8"/>
       <c r="AX103" s="8"/>
@@ -18133,7 +18475,7 @@
       <c r="AD104" s="11"/>
       <c r="AE104" s="12"/>
       <c r="AF104" s="10" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AG104" s="11"/>
       <c r="AH104" s="11"/>
@@ -18151,7 +18493,7 @@
       <c r="AT104" s="11"/>
       <c r="AU104" s="12"/>
       <c r="AV104" s="11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AW104" s="11"/>
       <c r="AX104" s="11"/>
@@ -18235,7 +18577,7 @@
       <c r="AT105" s="11"/>
       <c r="AU105" s="12"/>
       <c r="AV105" s="11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AW105" s="11"/>
       <c r="AX105" s="11"/>
@@ -18319,7 +18661,7 @@
       <c r="AT106" s="11"/>
       <c r="AU106" s="12"/>
       <c r="AV106" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AW106" s="11"/>
       <c r="AX106" s="11"/>
@@ -18442,65 +18784,65 @@
     </row>
     <row r="110" spans="3:84" x14ac:dyDescent="0.75">
       <c r="C110" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E111" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="3:84" x14ac:dyDescent="0.75">
       <c r="E112" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E144" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E145" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="58:58" x14ac:dyDescent="0.75">
       <c r="BF165" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E189" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E190" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E235" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E236" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E268" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.75">
       <c r="E269" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -18527,7 +18869,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.75">
@@ -18535,156 +18877,156 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C4" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C7" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.75">
       <c r="D8" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.75">
       <c r="D9" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C11" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C12" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.75">
       <c r="C16" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.75">
       <c r="E17" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.75">
       <c r="E18" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C20" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.75">
       <c r="E21" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.75">
       <c r="E22" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.75">
       <c r="E23" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C25" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C27" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C31" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.75">
       <c r="D32" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.75">
       <c r="D33" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.75">
       <c r="D34" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.75">
       <c r="C36" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
+++ b/doc/setting/01_StartUp/【m2o】Spring+Maven_基礎知識と環境構築.xlsx
@@ -3799,19 +3799,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>https://github.com/M2O-Workshop/OMSB.git</t>
-  </si>
-  <si>
-    <t>Gitリポジトリエクスプローラから以下リポジトリをローカルに複製する（OMSBリポジトリ）。</t>
-    <rPh sb="17" eb="19">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プロジェクトの「インポート」＞「一般的なプロジェクトとしてインポート」でワークスペースにインポートする。</t>
     <rPh sb="16" eb="19">
       <t>イッパンテキ</t>
@@ -3915,6 +3902,19 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Gitリポジトリエクスプローラから以下リポジトリをローカルに複製する（M2O&gt;Exampleリポジトリ）。</t>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://github.com/M2O-Workshop/Training.git</t>
   </si>
 </sst>
 </file>
@@ -6839,6 +6839,138 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121058</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>202216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E34E24-AE56-4FC3-A9B1-E450EDA78AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="16859251"/>
+          <a:ext cx="4200000" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>37079</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56D841A-6797-4673-ADF3-D67475ADAFEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5193927" y="9396133"/>
+          <a:ext cx="4586667" cy="3699048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>37078</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>174799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B19B721-55E7-4934-B78E-B0A5F7196FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="9396133"/>
+          <a:ext cx="4586667" cy="3699048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
@@ -6998,7 +7130,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7139,7 +7271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7386,7 +7518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7400,143 +7532,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>37078</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>170989</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7629D06E-5B39-4E51-8C05-169EAE88C734}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487456" y="9396133"/>
-          <a:ext cx="4586667" cy="3695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>37079</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>174799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA7D5F8-0688-4430-A171-84405AF18577}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5193927" y="9396133"/>
-          <a:ext cx="4586667" cy="3699048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5604</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>149169</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>53174</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11AB4351-EFF1-436A-882A-9DDA9CA859EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="493060" y="13788838"/>
-          <a:ext cx="3438095" cy="428571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -7590,67 +7585,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>61632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>87465</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>56539</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94675FD7-67AC-471F-8F79-41E8050C09DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="487456" y="16920883"/>
-          <a:ext cx="4009524" cy="409524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>106455</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:rowOff>16807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33615</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7665,7 +7611,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750794" y="16948896"/>
+          <a:off x="750794" y="16876058"/>
           <a:ext cx="397807" cy="381001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7840,15 +7786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
+      <xdr:colOff>5601</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>16808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>117662</xdr:rowOff>
+      <xdr:colOff>140072</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>196102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7863,7 +7809,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="969308" y="11407589"/>
+          <a:off x="963705" y="11278720"/>
           <a:ext cx="605118" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7967,6 +7913,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>192691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA50518-4755-49F0-9206-DE6472255127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487456" y="13749618"/>
+          <a:ext cx="3580952" cy="400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14023,12 +14018,12 @@
         <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18" x14ac:dyDescent="0.75">
       <c r="D42" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.75">
@@ -14036,12 +14031,12 @@
         <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.75">
       <c r="D45" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.75">
@@ -14049,31 +14044,31 @@
         <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.75">
       <c r="C71" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.75">
       <c r="C81" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.75">
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.75">
